--- a/_Lang_Korean/Lang/KR/Game/Thing.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Thing.xlsx
@@ -4576,7 +4576,7 @@
     <t xml:space="preserve">すくつ探索許可証</t>
   </si>
   <si>
-    <t xml:space="preserve">모험자에게 수수께끼의 고대유적을 탐색을 허가하는 라이센스</t>
+    <t xml:space="preserve">모험가에게 수수께끼의 고대유적을 탐색을 허가하는 라이센스</t>
   </si>
   <si>
     <t xml:space="preserve">A license permitting adventurers to explore the mysterious ancient ruins.</t>
@@ -4588,7 +4588,7 @@
     <t xml:space="preserve">license_adv</t>
   </si>
   <si>
-    <t xml:space="preserve">상급 모험자 라이센스</t>
+    <t xml:space="preserve">상급 모험가 라이센스</t>
   </si>
   <si>
     <t xml:space="preserve">Advanced Adventurer License</t>
@@ -4597,7 +4597,7 @@
     <t xml:space="preserve">上級冒険者ライセンス</t>
   </si>
   <si>
-    <t xml:space="preserve">상급 모험자임을 증명하는 라이센스, 일반적인 모험가의 상한선을 넘어, 명성을 획득할 수 있게 되며, 티리스에 위험한 네피아가 생성된다.</t>
+    <t xml:space="preserve">상급 모험가임을 증명하는 라이센스, 일반적인 모험가의 상한선을 넘어, 명성을 획득할 수 있게 되며, 티리스에 위험한 네피아가 생성된다.</t>
   </si>
   <si>
     <t xml:space="preserve">A license that certifies the holder as an advanced adventurer, allowing acquisition of fame beyond the usual limits for adventurers and results in the generation of dangerous Nefias in Tyris.</t>
@@ -20793,10 +20793,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A723" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="G737" activeCellId="0" sqref="G737"/>
+      <selection pane="bottomLeft" activeCell="M733" activeCellId="0" sqref="M733"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.29296875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.2734375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="1" style="0" width="16"/>
   </cols>
